--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2448200.605721738</v>
+        <v>-2451109.553793103</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.396723986041539</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>6.396723986041656</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -713,10 +713,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>162.7006698602322</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>26.53164513287595</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>335.2544961588358</v>
+        <v>335.2544961588327</v>
       </c>
       <c r="F5" t="n">
-        <v>184.4458040266187</v>
+        <v>335.2544961588327</v>
       </c>
       <c r="G5" t="n">
-        <v>12.58659989534474</v>
+        <v>12.58659989534475</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>105.7619939834398</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.9679580549795</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.2059571334993</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>335.2544961588358</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>335.2544961588327</v>
       </c>
     </row>
     <row r="6">
@@ -981,13 +981,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>57.78089425364377</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8902554169238</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.3070640244811</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>131.2762082298708</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>62.31732641987579</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.3947926746767</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.35649639177216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>197.1490937621398</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.53828418485148</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.27697994470624</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.27697994470635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>102.4774564326602</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.5197366720818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536084062</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8538311717799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.6594061764993</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>104.1233804225859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>58.24570521548653</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>196.9206411790015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>73.23997380652447</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2527,16 +2527,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>73.57849775387133</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352493</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3080,10 +3080,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,10 +3898,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294352</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294352</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294352</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294352</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294352</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>204.4218319897906</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>743.6410113056425</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823981</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823981</v>
+        <v>583.2614020227605</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823981</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659133</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659133</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659133</v>
+        <v>393.8416170062756</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494284</v>
+        <v>204.4218319897906</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487952</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062753</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897905</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="W3" t="n">
-        <v>15.0020469733056</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>323.1739116400124</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>323.1739116400124</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>671.3141920808272</v>
+        <v>743.6155489309755</v>
       </c>
       <c r="C5" t="n">
-        <v>671.3141920808272</v>
+        <v>716.8159073826159</v>
       </c>
       <c r="D5" t="n">
-        <v>671.3141920808272</v>
+        <v>716.8159073826159</v>
       </c>
       <c r="E5" t="n">
-        <v>332.673286869882</v>
+        <v>378.1750021716738</v>
       </c>
       <c r="F5" t="n">
-        <v>146.3643939137014</v>
+        <v>39.53409696073162</v>
       </c>
       <c r="G5" t="n">
-        <v>133.6506566456764</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="H5" t="n">
-        <v>133.6506566456764</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="I5" t="n">
-        <v>26.82035969270686</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="J5" t="n">
-        <v>75.8084116658888</v>
+        <v>75.80841166588755</v>
       </c>
       <c r="K5" t="n">
-        <v>199.9673209772261</v>
+        <v>199.9673209772236</v>
       </c>
       <c r="L5" t="n">
-        <v>390.8991887176479</v>
+        <v>390.8991887176439</v>
       </c>
       <c r="M5" t="n">
-        <v>635.0171176553437</v>
+        <v>635.0171176553376</v>
       </c>
       <c r="N5" t="n">
-        <v>887.6989382795213</v>
+        <v>887.6989382795132</v>
       </c>
       <c r="O5" t="n">
-        <v>1112.963955034632</v>
+        <v>1112.963955034622</v>
       </c>
       <c r="P5" t="n">
-        <v>1270.721434285808</v>
+        <v>1270.721434285797</v>
       </c>
       <c r="Q5" t="n">
-        <v>1341.017984635343</v>
+        <v>1341.017984635331</v>
       </c>
       <c r="R5" t="n">
-        <v>1341.017984635343</v>
+        <v>1295.595804781816</v>
       </c>
       <c r="S5" t="n">
-        <v>1341.017984635343</v>
+        <v>1295.595804781816</v>
       </c>
       <c r="T5" t="n">
-        <v>1341.017984635343</v>
+        <v>1082.256454141918</v>
       </c>
       <c r="U5" t="n">
-        <v>1341.017984635343</v>
+        <v>1082.256454141918</v>
       </c>
       <c r="V5" t="n">
-        <v>1009.955097291772</v>
+        <v>1082.256454141918</v>
       </c>
       <c r="W5" t="n">
-        <v>1009.955097291772</v>
+        <v>1082.256454141918</v>
       </c>
       <c r="X5" t="n">
-        <v>671.3141920808272</v>
+        <v>1082.256454141918</v>
       </c>
       <c r="Y5" t="n">
-        <v>671.3141920808272</v>
+        <v>743.6155489309755</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>545.8352225447493</v>
+        <v>655.9798116136554</v>
       </c>
       <c r="C6" t="n">
-        <v>371.3821932636223</v>
+        <v>481.5267823325284</v>
       </c>
       <c r="D6" t="n">
-        <v>222.447783602371</v>
+        <v>332.5923726712771</v>
       </c>
       <c r="E6" t="n">
-        <v>222.447783602371</v>
+        <v>173.3549176658216</v>
       </c>
       <c r="F6" t="n">
-        <v>164.0832439522258</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="G6" t="n">
-        <v>26.82035969270686</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="H6" t="n">
-        <v>26.82035969270686</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="I6" t="n">
-        <v>26.82035969270686</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="J6" t="n">
-        <v>37.17946088918795</v>
+        <v>37.17946088918717</v>
       </c>
       <c r="K6" t="n">
-        <v>133.0396395322614</v>
+        <v>133.0396395322597</v>
       </c>
       <c r="L6" t="n">
-        <v>308.2580207538347</v>
+        <v>308.2580207538318</v>
       </c>
       <c r="M6" t="n">
-        <v>532.086475294555</v>
+        <v>532.0864752945508</v>
       </c>
       <c r="N6" t="n">
-        <v>776.2476479203626</v>
+        <v>776.2476479203569</v>
       </c>
       <c r="O6" t="n">
-        <v>977.3876249173595</v>
+        <v>977.3876249173525</v>
       </c>
       <c r="P6" t="n">
-        <v>1119.487123027783</v>
+        <v>1119.487123027775</v>
       </c>
       <c r="Q6" t="n">
-        <v>1164.557677933909</v>
+        <v>1164.5576779339</v>
       </c>
       <c r="R6" t="n">
-        <v>1164.557677933909</v>
+        <v>1164.5576779339</v>
       </c>
       <c r="S6" t="n">
-        <v>1164.557677933909</v>
+        <v>1164.5576779339</v>
       </c>
       <c r="T6" t="n">
-        <v>968.287916293019</v>
+        <v>1164.5576779339</v>
       </c>
       <c r="U6" t="n">
-        <v>968.287916293019</v>
+        <v>1164.5576779339</v>
       </c>
       <c r="V6" t="n">
-        <v>968.287916293019</v>
+        <v>1164.5576779339</v>
       </c>
       <c r="W6" t="n">
-        <v>714.0505595648174</v>
+        <v>1164.5576779339</v>
       </c>
       <c r="X6" t="n">
-        <v>714.0505595648174</v>
+        <v>1031.955447398677</v>
       </c>
       <c r="Y6" t="n">
-        <v>714.0505595648174</v>
+        <v>824.1951486337234</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.7443926974308</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="C7" t="n">
-        <v>179.7443926974308</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="D7" t="n">
-        <v>179.7443926974308</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="E7" t="n">
-        <v>179.7443926974308</v>
+        <v>89.76715405621752</v>
       </c>
       <c r="F7" t="n">
-        <v>179.7443926974308</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="G7" t="n">
-        <v>179.7443926974308</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="H7" t="n">
-        <v>26.82035969270686</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="I7" t="n">
-        <v>26.82035969270686</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="J7" t="n">
-        <v>26.82035969270686</v>
+        <v>26.82035969270662</v>
       </c>
       <c r="K7" t="n">
-        <v>39.23367185447288</v>
+        <v>39.2336718544721</v>
       </c>
       <c r="L7" t="n">
-        <v>85.0242353699475</v>
+        <v>85.02423536994601</v>
       </c>
       <c r="M7" t="n">
-        <v>136.5622473004357</v>
+        <v>136.5622473004335</v>
       </c>
       <c r="N7" t="n">
-        <v>194.7323264062856</v>
+        <v>194.7323264062827</v>
       </c>
       <c r="O7" t="n">
-        <v>228.1487206430511</v>
+        <v>228.1487206430475</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="R7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="S7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="T7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="U7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="V7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="W7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="X7" t="n">
-        <v>237.6802476386148</v>
+        <v>237.6802476386106</v>
       </c>
       <c r="Y7" t="n">
-        <v>179.7443926974308</v>
+        <v>237.6802476386106</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>914.2613974809506</v>
+        <v>665.4862413335254</v>
       </c>
       <c r="C8" t="n">
-        <v>545.2988805405388</v>
+        <v>665.4862413335254</v>
       </c>
       <c r="D8" t="n">
-        <v>545.2988805405388</v>
+        <v>665.4862413335254</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405388</v>
+        <v>665.4862413335254</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>254.5003365439179</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>242.5096952877292</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4820,34 +4820,34 @@
         <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>1704.678664719077</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1704.678664719077</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W8" t="n">
-        <v>1351.910009448963</v>
+        <v>1815.691171634539</v>
       </c>
       <c r="X8" t="n">
-        <v>1351.910009448963</v>
+        <v>1442.225413373459</v>
       </c>
       <c r="Y8" t="n">
-        <v>1300.861237545072</v>
+        <v>1052.086081397647</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809305</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809305</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809305</v>
+        <v>63.85099446203876</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
         <v>89.55356510562316</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.3757834483391</v>
+        <v>315.8179617212123</v>
       </c>
       <c r="C10" t="n">
-        <v>340.3757834483391</v>
+        <v>146.8817787933054</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
         <v>92.71685897981521</v>
@@ -5005,7 +5005,7 @@
         <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.3757834483391</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408905</v>
+        <v>733.4550657171337</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>564.5188827892268</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768911</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768911</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>414.4022433768911</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831769</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625882</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.131839212678</v>
+        <v>1363.885660588921</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.14228831466</v>
+        <v>1135.896109690904</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.3497091711303</v>
+        <v>915.1035305473735</v>
       </c>
     </row>
     <row r="14">
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,16 +5364,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981028</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871873</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283425</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,46 +5516,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.5348780504994</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1578.981115722978</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1350.99156482496</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1130.19898568143</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
@@ -6412,7 +6412,7 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
         <v>1978.840049838285</v>
@@ -6421,10 +6421,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6482,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6616,7 +6616,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
@@ -6844,19 +6844,19 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7026,10 +7026,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580115</v>
@@ -7090,10 +7090,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,28 +7327,28 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7433,16 +7433,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7597,7 +7597,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971606</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>6.701109244016508</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399021</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>66.46644260414857</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038149</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -22708,25 +22708,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>114.7859889482797</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>60.12890086694433</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>69.70496293142823</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>28.78901421003562</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,16 +24415,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>212.9445005827197</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1103670.979488846</v>
+        <v>1103670.979488845</v>
       </c>
     </row>
     <row r="3">
@@ -26320,40 +26320,40 @@
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450033</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450033</v>
       </c>
       <c r="G2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450029</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450028</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321418</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.0884932142</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>41052.08849321419</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321417</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321417</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321418</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>163527.4916130751</v>
+        <v>163527.4916130716</v>
       </c>
       <c r="D3" t="n">
-        <v>216759.9319010237</v>
+        <v>216759.9319010269</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742654</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68492.66272217642</v>
+        <v>68492.66272217644</v>
       </c>
       <c r="K3" t="n">
-        <v>38020.69384958575</v>
+        <v>38020.69384958496</v>
       </c>
       <c r="L3" t="n">
-        <v>52354.5208254455</v>
+        <v>52354.52082544625</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180465.3416072034</v>
+        <v>180465.3416072033</v>
       </c>
       <c r="C4" t="n">
-        <v>235058.4539805403</v>
+        <v>235058.4539805411</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26430,31 +26430,31 @@
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687964</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687969</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>23427.49926997313</v>
+      </c>
+      <c r="K4" t="n">
         <v>23427.49926997316</v>
       </c>
-      <c r="K4" t="n">
-        <v>23427.49926997319</v>
-      </c>
       <c r="L4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="M4" t="n">
+        <v>23427.49926997316</v>
+      </c>
+      <c r="N4" t="n">
         <v>23427.49926997313</v>
       </c>
-      <c r="N4" t="n">
-        <v>23427.49926997316</v>
-      </c>
       <c r="O4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="P4" t="n">
         <v>23427.49926997313</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>68740.00864417513</v>
+        <v>68740.00864417489</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-796347.1333782257</v>
+        <v>-796776.6922448148</v>
       </c>
       <c r="C6" t="n">
-        <v>-426273.8657445763</v>
+        <v>-426273.8657445734</v>
       </c>
       <c r="D6" t="n">
-        <v>-435109.9153525795</v>
+        <v>-435109.9153525826</v>
       </c>
       <c r="E6" t="n">
-        <v>-677645.0474205515</v>
+        <v>-677679.7853459876</v>
       </c>
       <c r="F6" t="n">
-        <v>-76201.83984628646</v>
+        <v>-76236.57777172215</v>
       </c>
       <c r="G6" t="n">
-        <v>-76201.83984628649</v>
+        <v>-76236.57777172216</v>
       </c>
       <c r="H6" t="n">
-        <v>-76201.83984628652</v>
+        <v>-76236.57777172221</v>
       </c>
       <c r="I6" t="n">
-        <v>-76201.8398462865</v>
+        <v>-76236.57777172218</v>
       </c>
       <c r="J6" t="n">
         <v>-154032.1893528508</v>
       </c>
       <c r="K6" t="n">
-        <v>-123560.2204802601</v>
+        <v>-123560.2204802593</v>
       </c>
       <c r="L6" t="n">
-        <v>-137894.0474561198</v>
+        <v>-137894.0474561206</v>
       </c>
       <c r="M6" t="n">
-        <v>-242685.9071822723</v>
+        <v>-242685.9071822724</v>
       </c>
       <c r="N6" t="n">
-        <v>-85539.52663067439</v>
+        <v>-85539.52663067434</v>
       </c>
       <c r="O6" t="n">
         <v>-104967.2446243061</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>675.6392329228404</v>
+        <v>675.6392329228378</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>335.2544961588358</v>
+        <v>335.2544961588327</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>127.1692920099357</v>
+        <v>127.169292009933</v>
       </c>
       <c r="D3" t="n">
-        <v>178.0714316148437</v>
+        <v>178.0714316148463</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>147.7289089925158</v>
+        <v>147.7289089925126</v>
       </c>
       <c r="D4" t="n">
-        <v>206.8604605673273</v>
+        <v>206.8604605673305</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925156</v>
+        <v>147.7289089925125</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673276</v>
+        <v>206.8604605673305</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>147.7289089925158</v>
+        <v>147.7289089925126</v>
       </c>
       <c r="L4" t="n">
-        <v>206.8604605673273</v>
+        <v>206.8604605673305</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>59.00487451582612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>70.68499503062208</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681213</v>
+        <v>7.8840106256811</v>
       </c>
       <c r="U3" t="n">
-        <v>60.69123123399629</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>43.07231534324532</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,28 +27540,28 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,22 +27576,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>163.5907726231558</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346025</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>338.7412466381316</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>46.67587391342602</v>
+        <v>46.67587391342909</v>
       </c>
       <c r="F5" t="n">
-        <v>222.4302417150927</v>
+        <v>71.62154958287874</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>311.6581577170896</v>
+        <v>311.6581577170898</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>105.7619939834402</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.96795805497885</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>147.1260835752736</v>
+        <v>147.1260835752738</v>
       </c>
       <c r="T5" t="n">
-        <v>211.2059571334993</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1283618982533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>34.47660451963327</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>50.98344249722089</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>87.28831813974011</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8902554169238</v>
       </c>
       <c r="H6" t="n">
-        <v>98.19999526577858</v>
+        <v>98.19999526577864</v>
       </c>
       <c r="I6" t="n">
-        <v>49.48683303354436</v>
+        <v>49.48683303354455</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>55.44979659362686</v>
+        <v>55.4497965936272</v>
       </c>
       <c r="S6" t="n">
-        <v>144.6894715620621</v>
+        <v>144.6894715620622</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.3070640244811</v>
       </c>
       <c r="U6" t="n">
         <v>225.8457727555612</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>74.49677697360667</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>83.10372160305545</v>
       </c>
       <c r="G7" t="n">
         <v>166.7726135285979</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>151.3947926746767</v>
       </c>
       <c r="I7" t="n">
-        <v>118.8108916074426</v>
+        <v>118.8108916074428</v>
       </c>
       <c r="J7" t="n">
-        <v>40.85695726823334</v>
+        <v>40.85695726823367</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>49.48347745809694</v>
+        <v>49.48347745809734</v>
       </c>
       <c r="R7" t="n">
-        <v>122.5112332454258</v>
+        <v>122.511233245426</v>
       </c>
       <c r="S7" t="n">
-        <v>202.7838044383971</v>
+        <v>202.7838044383972</v>
       </c>
       <c r="T7" t="n">
         <v>222.739844518876</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>161.2281569603226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>107.1777109940433</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>335.6996544712021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>16.02248763434261</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>11.39188093250797</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.13801658555214</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.064916680013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-2.501388672114148e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.716137619790311</v>
+        <v>2.716137619790301</v>
       </c>
       <c r="H5" t="n">
-        <v>27.81664439867753</v>
+        <v>27.81664439867742</v>
       </c>
       <c r="I5" t="n">
-        <v>104.7138955869661</v>
+        <v>104.7138955869657</v>
       </c>
       <c r="J5" t="n">
-        <v>230.5287853076781</v>
+        <v>230.5287853076772</v>
       </c>
       <c r="K5" t="n">
-        <v>345.5028907534021</v>
+        <v>345.5028907534007</v>
       </c>
       <c r="L5" t="n">
-        <v>428.6268874350599</v>
+        <v>428.6268874350582</v>
       </c>
       <c r="M5" t="n">
-        <v>476.9299998310058</v>
+        <v>476.929999831004</v>
       </c>
       <c r="N5" t="n">
-        <v>484.647225843235</v>
+        <v>484.6472258432332</v>
       </c>
       <c r="O5" t="n">
-        <v>457.6386323864451</v>
+        <v>457.6386323864434</v>
       </c>
       <c r="P5" t="n">
-        <v>390.5839848978717</v>
+        <v>390.5839848978703</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.3123063891312</v>
+        <v>293.31230638913</v>
       </c>
       <c r="R5" t="n">
-        <v>170.6175797591533</v>
+        <v>170.6175797591526</v>
       </c>
       <c r="S5" t="n">
-        <v>61.89398601097177</v>
+        <v>61.89398601097154</v>
       </c>
       <c r="T5" t="n">
-        <v>11.88989243063209</v>
+        <v>11.88989243063205</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2172910095832248</v>
+        <v>0.217291009583224</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.453261746286864</v>
+        <v>1.453261746286859</v>
       </c>
       <c r="H6" t="n">
-        <v>14.03544897071788</v>
+        <v>14.03544897071782</v>
       </c>
       <c r="I6" t="n">
-        <v>50.03554696645564</v>
+        <v>50.03554696645545</v>
       </c>
       <c r="J6" t="n">
-        <v>137.3013652489708</v>
+        <v>137.3013652489703</v>
       </c>
       <c r="K6" t="n">
-        <v>234.6699022501907</v>
+        <v>234.6699022501898</v>
       </c>
       <c r="L6" t="n">
-        <v>315.5426436400492</v>
+        <v>315.542643640048</v>
       </c>
       <c r="M6" t="n">
-        <v>368.223381942948</v>
+        <v>368.2233819429466</v>
       </c>
       <c r="N6" t="n">
-        <v>377.9691591801086</v>
+        <v>377.9691591801072</v>
       </c>
       <c r="O6" t="n">
-        <v>345.7679383808049</v>
+        <v>345.7679383808036</v>
       </c>
       <c r="P6" t="n">
-        <v>277.5092539905153</v>
+        <v>277.5092539905143</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.5075871225127</v>
+        <v>185.507587122512</v>
       </c>
       <c r="R6" t="n">
-        <v>90.2297073703371</v>
+        <v>90.22970737033675</v>
       </c>
       <c r="S6" t="n">
-        <v>26.99369954177573</v>
+        <v>26.99369954177562</v>
       </c>
       <c r="T6" t="n">
-        <v>5.857664670340473</v>
+        <v>5.85766467034045</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09560932541360953</v>
+        <v>0.09560932541360916</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21836582986086</v>
+        <v>1.218365829860855</v>
       </c>
       <c r="H7" t="n">
-        <v>10.83237983276292</v>
+        <v>10.83237983276288</v>
       </c>
       <c r="I7" t="n">
-        <v>36.63958331981568</v>
+        <v>36.63958331981554</v>
       </c>
       <c r="J7" t="n">
-        <v>86.13846417116277</v>
+        <v>86.13846417116244</v>
       </c>
       <c r="K7" t="n">
-        <v>141.5519573238344</v>
+        <v>141.5519573238338</v>
       </c>
       <c r="L7" t="n">
-        <v>181.1377707413137</v>
+        <v>181.1377707413129</v>
       </c>
       <c r="M7" t="n">
-        <v>190.9843818571891</v>
+        <v>190.9843818571883</v>
       </c>
       <c r="N7" t="n">
-        <v>186.4432001277079</v>
+        <v>186.4432001277071</v>
       </c>
       <c r="O7" t="n">
-        <v>172.2104720243332</v>
+        <v>172.2104720243325</v>
       </c>
       <c r="P7" t="n">
-        <v>147.3558090951715</v>
+        <v>147.355809095171</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.0215241713489</v>
+        <v>102.0215241713485</v>
       </c>
       <c r="R7" t="n">
-        <v>54.78215813174373</v>
+        <v>54.78215813174351</v>
       </c>
       <c r="S7" t="n">
-        <v>21.23279359857515</v>
+        <v>21.23279359857507</v>
       </c>
       <c r="T7" t="n">
-        <v>5.20574490940549</v>
+        <v>5.205744909405469</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0664563179924106</v>
+        <v>0.06645631799241035</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>353.3934907042774</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>49.48288078099185</v>
+        <v>49.48288078099094</v>
       </c>
       <c r="K5" t="n">
-        <v>125.4130397084215</v>
+        <v>125.4130397084202</v>
       </c>
       <c r="L5" t="n">
-        <v>192.8604724650726</v>
+        <v>192.860472465071</v>
       </c>
       <c r="M5" t="n">
-        <v>246.5837666037331</v>
+        <v>246.5837666037312</v>
       </c>
       <c r="N5" t="n">
-        <v>255.2341622466441</v>
+        <v>255.2341622466423</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5404209647584</v>
+        <v>227.5404209647566</v>
       </c>
       <c r="P5" t="n">
-        <v>159.3509891426022</v>
+        <v>159.3509891426007</v>
       </c>
       <c r="Q5" t="n">
-        <v>71.00661651468167</v>
+        <v>71.00661651468053</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>10.46373858230413</v>
+        <v>10.46373858230359</v>
       </c>
       <c r="K6" t="n">
-        <v>96.82846327583172</v>
+        <v>96.82846327583081</v>
       </c>
       <c r="L6" t="n">
-        <v>176.988263860175</v>
+        <v>176.9882638601738</v>
       </c>
       <c r="M6" t="n">
-        <v>226.0893480209297</v>
+        <v>226.0893480209282</v>
       </c>
       <c r="N6" t="n">
-        <v>246.6274470967753</v>
+        <v>246.6274470967739</v>
       </c>
       <c r="O6" t="n">
-        <v>203.1716939363605</v>
+        <v>203.1716939363591</v>
       </c>
       <c r="P6" t="n">
-        <v>143.5348465761851</v>
+        <v>143.5348465761841</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.5258130364912</v>
+        <v>45.52581303649049</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>12.53869915329901</v>
+        <v>12.53869915329847</v>
       </c>
       <c r="L7" t="n">
-        <v>46.25309446007537</v>
+        <v>46.25309446007466</v>
       </c>
       <c r="M7" t="n">
-        <v>52.05859790958402</v>
+        <v>52.05859790958328</v>
       </c>
       <c r="N7" t="n">
-        <v>58.75765566247466</v>
+        <v>58.75765566247395</v>
       </c>
       <c r="O7" t="n">
-        <v>33.75393357249041</v>
+        <v>33.75393357248976</v>
       </c>
       <c r="P7" t="n">
-        <v>9.627805046023923</v>
+        <v>9.627805046023354</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>94.75954470991793</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010482</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>219.4190832899471</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
